--- a/Non-Python Stats Stuff/Z-Practice.xlsx
+++ b/Non-Python Stats Stuff/Z-Practice.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertwrobel/Code/Python4Statistics/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertwrobel/Code/Python4Statistics/Non-Python Stats Stuff/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E8252C9E-B28D-A44D-B033-EA71B9943F81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24018C69-0A06-8A45-8B57-A62D3C98B164}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17280" activeTab="1" xr2:uid="{3AF4D33A-86E0-5545-853D-D2D66FE90918}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="32">
   <si>
     <t>Male</t>
   </si>
@@ -119,6 +119,21 @@
   </si>
   <si>
     <t>S&amp;P500 Percent Change</t>
+  </si>
+  <si>
+    <t>Create a column showing the number of standard deviations away from the mean that each daily change is</t>
+  </si>
+  <si>
+    <t>Find the probability of a day's change falling between -3% and 3%</t>
+  </si>
+  <si>
+    <t>Find the probaility of a day's change being &gt; 2%</t>
+  </si>
+  <si>
+    <t>Find the probability of a day's change being &lt; 1%</t>
+  </si>
+  <si>
+    <t>Find the probability of a day's change falling below -3% or above 3%</t>
   </si>
 </sst>
 </file>
@@ -1924,10 +1939,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6039F585-1BA7-AD46-B18E-4FB453F186C7}">
-  <dimension ref="A1:B1212"/>
+  <dimension ref="A1:D1212"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1935,7 +1950,7 @@
     <col min="1" max="1" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>25</v>
       </c>
@@ -1943,7 +1958,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>43404</v>
       </c>
@@ -1951,7 +1966,7 @@
         <v>1.0851299999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>43405</v>
       </c>
@@ -1959,15 +1974,18 @@
         <v>1.0557799999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>43406</v>
       </c>
       <c r="B4">
         <v>-0.63166999999999995</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>43409</v>
       </c>
@@ -1975,39 +1993,51 @@
         <v>0.56003000000000003</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>43410</v>
       </c>
       <c r="B6">
         <v>0.62592999999999999</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>43411</v>
       </c>
       <c r="B7">
         <v>2.1208900000000002</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>43412</v>
       </c>
       <c r="B8">
         <v>-0.25090000000000001</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>43413</v>
       </c>
       <c r="B9">
         <v>-0.91990000000000005</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>43416</v>
       </c>
@@ -2015,7 +2045,7 @@
         <v>-1.9701500000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>43417</v>
       </c>
@@ -2023,7 +2053,7 @@
         <v>-0.14818999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>43418</v>
       </c>
@@ -2031,7 +2061,7 @@
         <v>-0.75675000000000003</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>43419</v>
       </c>
@@ -2039,7 +2069,7 @@
         <v>1.05938</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>43420</v>
       </c>
@@ -2047,7 +2077,7 @@
         <v>0.22233</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>43423</v>
       </c>
@@ -2055,7 +2085,7 @@
         <v>-1.66431</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>43424</v>
       </c>
